--- a/attack-website/docs/mobile-attack-v15.1/mobile-attack-v15.1-software.xlsx
+++ b/attack-website/docs/mobile-attack-v15.1/mobile-attack-v15.1-software.xlsx
@@ -2167,7 +2167,7 @@
     <t>,(Citation: HackerNews-Allwinner)</t>
   </si>
   <si>
-    <t>,(Citation: forcepoint_bitter),(Citation: blackberry_mobile_malware_apt_esp),(Citation: Lookout-EnterpriseApps)</t>
+    <t>,(Citation: Lookout-EnterpriseApps),(Citation: blackberry_mobile_malware_apt_esp),(Citation: forcepoint_bitter)</t>
   </si>
   <si>
     <t>,(Citation: WeLiveSecurity AdDisplayAshas)</t>
@@ -2179,7 +2179,7 @@
     <t>,(Citation: Microsoft MalLockerB)</t>
   </si>
   <si>
-    <t>,(Citation: Zimperium z9),(Citation: Cofense Anubis),(Citation: Trend Micro Anubis)</t>
+    <t>,(Citation: Trend Micro Anubis),(Citation: Cofense Anubis),(Citation: Zimperium z9)</t>
   </si>
   <si>
     <t>,(Citation: Securelist Asacub)</t>
@@ -2188,7 +2188,7 @@
     <t>,(Citation: lookout_bouldspy_0423)</t>
   </si>
   <si>
-    <t>,(Citation: mcafee_brata_0421),(Citation: cleafy_brata_0122),(Citation: securelist_brata_0819)</t>
+    <t>,(Citation: cleafy_brata_0122),(Citation: mcafee_brata_0421),(Citation: securelist_brata_0819)</t>
   </si>
   <si>
     <t>,(Citation: Lookout-BrainTest)</t>
@@ -2266,7 +2266,7 @@
     <t>(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Dark Caracal Jan 2018)</t>
   </si>
   <si>
-    <t>,(Citation: FlexiSpy-Features),(Citation: CyberMerchants-FlexiSpy),(Citation: FortiGuard-FlexiSpy)</t>
+    <t>,(Citation: FortiGuard-FlexiSpy),(Citation: CyberMerchants-FlexiSpy),(Citation: FlexiSpy-Features)</t>
   </si>
   <si>
     <t>,(Citation: checkpoint_flixonline_0421)</t>
@@ -2275,7 +2275,7 @@
     <t>,(Citation: proofpoint_flubot_0421),(Citation: bitdefender_flubot_0524)</t>
   </si>
   <si>
-    <t>,(Citation: Zimperium FlyTrap),(Citation: Trend Micro FlyTrap)</t>
+    <t>,(Citation: Trend Micro FlyTrap),(Citation: Zimperium FlyTrap)</t>
   </si>
   <si>
     <t>,(Citation: Lookout FrozenCell)</t>
@@ -2296,7 +2296,7 @@
     <t>,(Citation: Gooligan Citation)</t>
   </si>
   <si>
-    <t>,(Citation: Group IB Gustuff Mar 2019),(Citation: Talos Gustuff Apr 2019)</t>
+    <t>,(Citation: Talos Gustuff Apr 2019),(Citation: Group IB Gustuff Mar 2019)</t>
   </si>
   <si>
     <t>,(Citation: Palo Alto HenBox)</t>
@@ -2353,7 +2353,7 @@
     <t>,(Citation: CitizenLab Great iPwn),(Citation: Lookout-Pegasus)</t>
   </si>
   <si>
-    <t>(Citation: sentinelone_israel_hamas_war),(Citation: fb_arid_viper),(Citation: fb_arid_viper)</t>
+    <t>(Citation: fb_arid_viper),(Citation: sentinelone_israel_hamas_war),(Citation: fb_arid_viper)</t>
   </si>
   <si>
     <t>,(Citation: TrendMicro-RCSAndroid)</t>
@@ -2374,7 +2374,7 @@
     <t>,(Citation: FireEye-RuMMS)</t>
   </si>
   <si>
-    <t>,(Citation: cleafy_sova_1122),(Citation: threatfabric_sova_0921)</t>
+    <t>,(Citation: threatfabric_sova_0921),(Citation: cleafy_sova_1122)</t>
   </si>
   <si>
     <t>,(Citation: nccgroup_sharkbot_0322)</t>
@@ -2410,7 +2410,7 @@
     <t>,(Citation: Zscaler TikTok Spyware)</t>
   </si>
   <si>
-    <t>,(Citation: Kaspersky Triada June 2016),(Citation: Google Triada June 2019),(Citation: Kaspersky Triada March 2016),(Citation: Krebs-Triada June 2019)</t>
+    <t>,(Citation: Krebs-Triada June 2019),(Citation: Kaspersky Triada March 2016),(Citation: Kaspersky Triada June 2016),(Citation: Google Triada June 2019)</t>
   </si>
   <si>
     <t>,(Citation: SecurityIntelligence TrickMo)</t>
@@ -2446,7 +2446,7 @@
     <t>,(Citation: PaloAlto-Xbot)</t>
   </si>
   <si>
-    <t>,(Citation: PaloAlto-XcodeGhost),(Citation: PaloAlto-XcodeGhost1)</t>
+    <t>,(Citation: PaloAlto-XcodeGhost1),(Citation: PaloAlto-XcodeGhost)</t>
   </si>
   <si>
     <t>,(Citation: paloalto_yispecter_1015)</t>
